--- a/xlsx/紐約_intext.xlsx
+++ b/xlsx/紐約_intext.xlsx
@@ -29,7 +29,7 @@
     <t>紐約 (消歧義)</t>
   </si>
   <si>
-    <t>政策_政策_美國_紐約</t>
+    <t>体育运动_体育运动_2012年夏季奥林匹克运动会_紐約</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82</t>
@@ -26177,7 +26177,7 @@
         <v>1226</v>
       </c>
       <c r="G654" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H654" t="s">
         <v>4</v>
